--- a/facturas/2025/ENERO/factura_SOLDPLAS HOT AIR TOOLS S.L._2242.xlsx
+++ b/facturas/2025/ENERO/factura_SOLDPLAS HOT AIR TOOLS S.L._2242.xlsx
@@ -49,7 +49,7 @@
     <t>FACTURA:</t>
   </si>
   <si>
-    <t>20/25</t>
+    <t>38/25</t>
   </si>
   <si>
     <t>C/ MILANOS 10</t>
